--- a/biology/Microbiologie/Paracinetidae/Paracinetidae.xlsx
+++ b/biology/Microbiologie/Paracinetidae/Paracinetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Paracinetidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Paracineta, composé du préfixe para-, « à côté de », et du suffixe ‑acineta, par allusion au genre Acineta Ehrenberg, 1834, genre type de la famille des Acinetidae. Collin en 1911 aurait pu vouloir ainsi définir un genre ressemblant à Acineta mais suffisamment proche pour garder le nom du genre dans le nouveau nom. 
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les Acenita, Acineta patula (Paracineta patula) possède, à la fois un pédoncule, et une cuirasse. De plus cette espèce a un « corps non adhérent à la coque. Celle-ci a la forme d’une coupe élégante, sur laquelle le corps repose comme un melon sur une assiette à fruit. Suçoirs répartis sur toute la surface libre »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les Acenita, Acineta patula (Paracineta patula) possède, à la fois un pédoncule, et une cuirasse. De plus cette espèce a un « corps non adhérent à la coque. Celle-ci a la forme d’une coupe élégante, sur laquelle le corps repose comme un melon sur une assiette à fruit. Suçoirs répartis sur toute la surface libre ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acineta patula « habite sur des Floridées (une classe d'algues rouges) et autres algues marines. »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acineta patula « habite sur des Floridées (une classe d'algues rouges) et autres algues marines. ».
 </t>
         </is>
       </c>
@@ -604,19 +622,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 mai 2023)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 mai 2023) :
 Actinocyathula Corliss, 1960
 Distarcon Jankowski, 1987 [non listé dans Aescht]
 Loricophrya Matthes, 1956
 Luxophrya Jankowski, 1978
-Selon The Taxonomicon  (21 mai 2023)[6] :
+Selon The Taxonomicon  (21 mai 2023) :
 Paracineta Collin, 1911
 Synonymes : Stemacineta, Hallezia.
 Espèce type : Paracineta patula (Claparède &amp; Lachmann, 1861) Collin, 1911
 Synonyme : Acineta patula Claparede &amp; Lachmann, 1881
-Selon Lynn (2008) [2] :
+Selon Lynn (2008)  :
 Actinocyathula Corliss, 1960
 Distarcon Jankowski, 1987 [not listed par Aescht]
 Limnoricus Jankowski, 1981
@@ -651,10 +671,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Paracinetidae Jankowksi, 1978[7].
-GBIF       (21 mai 2023)[5] classe le genre type Paracineta dans la famille des Acinetidae.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Paracinetidae Jankowksi, 1978.
+GBIF       (21 mai 2023) classe le genre type Paracineta dans la famille des Acinetidae.
 </t>
         </is>
       </c>
